--- a/Companies/Automobile - Auto & Truck Manufacturers/Mahindra and Mahindra Ltd/Pruned_Excel/combined_excel_file.xlsx
+++ b/Companies/Automobile - Auto & Truck Manufacturers/Mahindra and Mahindra Ltd/Pruned_Excel/combined_excel_file.xlsx
@@ -55,10 +55,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,15 +448,15 @@
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="10" customWidth="1" min="16" max="16"/>
-    <col width="10" customWidth="1" min="17" max="17"/>
-    <col width="10" customWidth="1" min="18" max="18"/>
-    <col width="11" customWidth="1" min="19" max="19"/>
-    <col width="10" customWidth="1" min="20" max="20"/>
-    <col width="10" customWidth="1" min="21" max="21"/>
+    <col width="9" customWidth="1" min="16" max="16"/>
+    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="9" customWidth="1" min="18" max="18"/>
+    <col width="10" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="21" max="21"/>
     <col width="11" customWidth="1" min="22" max="22"/>
     <col width="11" customWidth="1" min="23" max="23"/>
     <col width="11" customWidth="1" min="24" max="24"/>
@@ -464,14 +467,14 @@
     <col width="11" customWidth="1" min="29" max="29"/>
     <col width="11" customWidth="1" min="30" max="30"/>
     <col width="11" customWidth="1" min="31" max="31"/>
-    <col width="10" customWidth="1" min="32" max="32"/>
-    <col width="10" customWidth="1" min="33" max="33"/>
-    <col width="10" customWidth="1" min="34" max="34"/>
-    <col width="10" customWidth="1" min="35" max="35"/>
-    <col width="10" customWidth="1" min="36" max="36"/>
+    <col width="9" customWidth="1" min="32" max="32"/>
+    <col width="9" customWidth="1" min="33" max="33"/>
+    <col width="9" customWidth="1" min="34" max="34"/>
+    <col width="9" customWidth="1" min="35" max="35"/>
+    <col width="9" customWidth="1" min="36" max="36"/>
     <col width="9" customWidth="1" min="37" max="37"/>
     <col width="9" customWidth="1" min="38" max="38"/>
-    <col width="10" customWidth="1" min="39" max="39"/>
+    <col width="9" customWidth="1" min="39" max="39"/>
     <col width="9" customWidth="1" min="40" max="40"/>
     <col width="9" customWidth="1" min="41" max="41"/>
     <col width="11" customWidth="1" min="42" max="42"/>
@@ -1129,130 +1132,80 @@
           <t>Other Operating Income</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>16,615.35</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>18,807.42</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17,803.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>18,327.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>18,410.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>709.24</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>778.06</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>875.98</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>886.52</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>870.05</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>992.67</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>1,076.66</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>958.61</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>999.54</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1,152.49</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>284.52</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>154.93</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-1,293.59</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>770.00</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-706.59</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>506.87</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-1,504.83</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>304.38</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-880.93</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>376.00</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>16615.35</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>18807.42</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>17803</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>18327.63</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>18410.94</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>709.24</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>778.0599999999999</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>875.98</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>886.52</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>870.05</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>992.67</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>1076.66</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>958.61</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>999.54</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>1152.49</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>284.52</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>154.93</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>-1293.59</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>770</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>-706.59</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>506.87</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>-1504.83</v>
+      </c>
+      <c r="X5" s="2" t="n">
+        <v>304.38</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>-880.9299999999999</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>376</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -1304,55 +1257,35 @@
           <t>--</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>746.13</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>836.22</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>912.85</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>934.22</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>949.02</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>1,044.73</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>1,126.24</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>1,134.27</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>1,111.18</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>1,175.34</t>
-        </is>
+      <c r="AK5" s="2" t="n">
+        <v>746.13</v>
+      </c>
+      <c r="AL5" s="2" t="n">
+        <v>836.22</v>
+      </c>
+      <c r="AM5" s="2" t="n">
+        <v>912.85</v>
+      </c>
+      <c r="AN5" s="2" t="n">
+        <v>934.22</v>
+      </c>
+      <c r="AO5" s="2" t="n">
+        <v>949.02</v>
+      </c>
+      <c r="AP5" s="2" t="n">
+        <v>1044.73</v>
+      </c>
+      <c r="AQ5" s="2" t="n">
+        <v>1126.24</v>
+      </c>
+      <c r="AR5" s="2" t="n">
+        <v>1134.27</v>
+      </c>
+      <c r="AS5" s="2" t="n">
+        <v>1111.18</v>
+      </c>
+      <c r="AT5" s="2" t="n">
+        <v>1175.34</v>
       </c>
     </row>
     <row r="6">
@@ -1361,55 +1294,35 @@
           <t>Total Income From Operations</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>680.48</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>680.63</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>775.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>829.16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>838.51</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>828.14</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>815.83</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>817.87</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>977.01</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>914.62</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>680.48</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>680.63</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>775.58</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>829.16</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>838.51</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>828.14</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>815.83</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>817.87</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>977.01</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>914.62</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -1623,15 +1536,11 @@
           <t>--</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-42.83</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-58.71</t>
-        </is>
+      <c r="H7" s="2" t="n">
+        <v>-42.83</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>-58.71</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1668,155 +1577,95 @@
           <t>--</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>1,356.82</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>1,454.27</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1,539.80</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>1,458.25</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>1,903.07</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>1,661.32</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>1,870.34</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>1,851.83</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2,432.77</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>1,901.80</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>1,265.06</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>1,660.40</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>1,720.77</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>1,985.05</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>1,958.85</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>2,719.25</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>3,581.02</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2,772.40</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>2,468.85</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>3,201.57</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>238.70</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>238.58</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>1,325.88</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>670.01</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>333.86</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>657.62</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>819.12</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>383.15</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>220.33</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>257.55</t>
-        </is>
+      <c r="Q7" s="2" t="n">
+        <v>1356.82</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>1454.27</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>1539.8</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>1458.25</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>1903.07</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>1661.32</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>1870.34</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>1851.83</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>2432.77</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>1901.8</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>1265.06</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>1660.4</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>1720.77</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>1985.05</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>1958.85</v>
+      </c>
+      <c r="AF7" s="2" t="n">
+        <v>2719.25</v>
+      </c>
+      <c r="AG7" s="2" t="n">
+        <v>3581.02</v>
+      </c>
+      <c r="AH7" s="2" t="n">
+        <v>2772.4</v>
+      </c>
+      <c r="AI7" s="2" t="n">
+        <v>2468.85</v>
+      </c>
+      <c r="AJ7" s="2" t="n">
+        <v>3201.57</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>238.7</v>
+      </c>
+      <c r="AL7" s="2" t="n">
+        <v>238.58</v>
+      </c>
+      <c r="AM7" s="2" t="n">
+        <v>1325.88</v>
+      </c>
+      <c r="AN7" s="2" t="n">
+        <v>670.01</v>
+      </c>
+      <c r="AO7" s="2" t="n">
+        <v>333.86</v>
+      </c>
+      <c r="AP7" s="2" t="n">
+        <v>657.62</v>
+      </c>
+      <c r="AQ7" s="2" t="n">
+        <v>819.12</v>
+      </c>
+      <c r="AR7" s="2" t="n">
+        <v>383.15</v>
+      </c>
+      <c r="AS7" s="2" t="n">
+        <v>220.33</v>
+      </c>
+      <c r="AT7" s="2" t="n">
+        <v>257.55</v>
       </c>
     </row>
     <row r="8">
@@ -1825,180 +1674,110 @@
           <t>Consumption of Raw Materials</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1,503.76</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1,898.98</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3,046.65</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2,655.06</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2,292.71</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3,376.87</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>4,400.14</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3,155.55</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2,689.18</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>3,459.12</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>55.82</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>69.79</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>63.66</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>68.56</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>69.79</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>32.34</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>32.93</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>34.82</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>38.68</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>52.90</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>1,447.94</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>1,829.19</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>2,982.99</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>2,586.50</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>2,222.92</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>3,344.53</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>4,367.21</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>3,120.73</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>2,650.50</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>3,406.22</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>124.79</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>-40.97</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>-247.86</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>-628.88</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>-511.83</t>
-        </is>
+      <c r="B8" s="2" t="n">
+        <v>1503.76</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1898.98</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>3046.65</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2655.06</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>2292.71</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>3376.87</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>4400.14</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>3155.55</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>2689.18</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>3459.12</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>55.82</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>69.79000000000001</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>63.66</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>68.56</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>69.79000000000001</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>32.34</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>32.93</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>34.82</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>38.68</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>1447.94</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>1829.19</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>2982.99</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>2586.5</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>2222.92</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>3344.53</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>4367.21</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>3120.73</v>
+      </c>
+      <c r="AD8" s="2" t="n">
+        <v>2650.5</v>
+      </c>
+      <c r="AE8" s="2" t="n">
+        <v>3406.22</v>
+      </c>
+      <c r="AF8" s="2" t="n">
+        <v>124.79</v>
+      </c>
+      <c r="AG8" s="2" t="n">
+        <v>-40.97</v>
+      </c>
+      <c r="AH8" s="2" t="n">
+        <v>-247.86</v>
+      </c>
+      <c r="AI8" s="2" t="n">
+        <v>-628.88</v>
+      </c>
+      <c r="AJ8" s="2" t="n">
+        <v>-511.83</v>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
@@ -2025,30 +1804,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>1,572.73</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>1,788.22</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>2,735.13</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>1,957.62</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>1,711.09</t>
-        </is>
+      <c r="AP8" s="2" t="n">
+        <v>1572.73</v>
+      </c>
+      <c r="AQ8" s="2" t="n">
+        <v>1788.22</v>
+      </c>
+      <c r="AR8" s="2" t="n">
+        <v>2735.13</v>
+      </c>
+      <c r="AS8" s="2" t="n">
+        <v>1957.62</v>
+      </c>
+      <c r="AT8" s="2" t="n">
+        <v>1711.09</v>
       </c>
     </row>
     <row r="9">
@@ -2057,130 +1826,80 @@
           <t>Purchase of Traded Goods</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3,344.53</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4,367.21</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3,120.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2,650.50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3,406.22</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>280.79</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>358.06</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>645.21</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>429.56</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>162.12</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>570.80</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>915.33</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>666.75</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>612.29</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>793.59</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>1,291.94</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>1,430.16</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>2,089.92</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>1,528.06</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1,548.97</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>2,773.73</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>3,451.88</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>2,453.98</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2,038.21</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>2,612.63</t>
-        </is>
+      <c r="B9" s="2" t="n">
+        <v>3344.53</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>4367.21</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>3120.73</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>2650.5</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>3406.22</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>280.79</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>358.06</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>645.21</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>429.56</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>162.12</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>570.8</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>915.33</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>666.75</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>612.29</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>793.59</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>1291.94</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>1430.16</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>2089.92</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>1528.06</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>1548.97</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>2773.73</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>3451.88</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>2453.98</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>2038.21</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>2612.63</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
